--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value781.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value781.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.027796325054553</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>3.374937254192745</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>3.382471627634961</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.154493321358113</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.188894767869105</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
